--- a/Ennemis.xlsx
+++ b/Ennemis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolecomt\Desktop\TP\Rogue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolecomt\Desktop\TP\Rogue\RoguePlateform\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>ennemi</t>
   </si>
@@ -154,13 +154,16 @@
   </si>
   <si>
     <t>Reste fixe et tire sur le joueur tant qu'il est vivant</t>
+  </si>
+  <si>
+    <t>Couleur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +171,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +196,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -207,6 +236,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O10"/>
+  <dimension ref="A2:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +904,7 @@
     <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,8 +944,12 @@
       <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="O2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -945,9 +990,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -988,9 +1034,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1032,8 +1079,9 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2"/>
+      <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1074,9 +1122,9 @@
         <v>1.5</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1117,9 +1165,10 @@
         <v>3</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1161,8 +1210,9 @@
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="2"/>
+      <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1204,8 +1254,9 @@
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="2"/>
+      <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1246,11 +1297,16 @@
         <v>0.5</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Ennemis.xlsx
+++ b/Ennemis.xlsx
@@ -236,9 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -248,6 +245,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P10"/>
+  <dimension ref="A2:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +904,7 @@
     <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,12 +944,12 @@
       <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -990,10 +990,13 @@
         <v>1</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="9"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="8"/>
+      <c r="Q3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1034,10 +1037,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1079,9 +1085,12 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="8"/>
+      <c r="P5" s="7"/>
+      <c r="Q5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1122,9 +1131,12 @@
         <v>1.5</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="6"/>
+      <c r="Q6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1165,10 +1177,13 @@
         <v>3</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1210,9 +1225,12 @@
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="8"/>
+      <c r="P8" s="7"/>
+      <c r="Q8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1254,9 +1272,12 @@
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="8"/>
+      <c r="P9" s="7"/>
+      <c r="Q9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1297,8 +1318,11 @@
         <v>0.5</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="10"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="9"/>
+      <c r="Q10">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
